--- a/test data/graph - Copy (copy 1).xlsx
+++ b/test data/graph - Copy (copy 1).xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\Python\Graphite_QT\test data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D1923F-CFA7-4552-BDB2-C91D8A3574F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -37,16 +43,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -59,11 +67,11 @@
   </fills>
   <borders count="2">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -78,21 +86,18 @@
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" quotePrefix="0" pivotButton="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" quotePrefix="0" pivotButton="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -103,295 +108,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -596,247 +321,242 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
-    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="B2" s="3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>25</v>
       </c>
-      <c r="C2" s="3">
+      <c r="B2" s="2">
         <v>49</v>
       </c>
-      <c r="D2" s="3">
+      <c r="C2" s="2">
         <v>73</v>
       </c>
-      <c r="E2" s="3">
+      <c r="D2" s="2">
         <v>97</v>
       </c>
-      <c r="F2" s="3">
+      <c r="E2" s="2">
         <v>121</v>
       </c>
-      <c r="G2" s="3">
+      <c r="F2" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="3">
-      <c r="B3" s="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>345</v>
       </c>
-      <c r="C3" s="3">
+      <c r="B3" s="2">
         <v>688</v>
       </c>
-      <c r="D3" s="3">
+      <c r="C3" s="2">
         <v>1031</v>
       </c>
-      <c r="E3" s="3">
+      <c r="D3" s="2">
         <v>1374</v>
       </c>
-      <c r="F3" s="3">
+      <c r="E3" s="2">
         <v>1717</v>
       </c>
-      <c r="G3" s="3">
+      <c r="F3" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="4">
-      <c r="B4" s="3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>2345</v>
       </c>
-      <c r="C4" s="3">
+      <c r="B4" s="2">
         <v>4687</v>
       </c>
-      <c r="D4" s="3">
+      <c r="C4" s="2">
         <v>7029</v>
       </c>
-      <c r="E4" s="3">
+      <c r="D4" s="2">
         <v>9371</v>
       </c>
-      <c r="F4" s="3">
+      <c r="E4" s="2">
         <v>11713</v>
       </c>
-      <c r="G4" s="3">
+      <c r="F4" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>66</v>
       </c>
-      <c r="C5" s="3">
+      <c r="B5" s="2">
         <v>128</v>
       </c>
-      <c r="D5" s="3">
+      <c r="C5" s="2">
         <v>190</v>
       </c>
-      <c r="E5" s="3">
+      <c r="D5" s="2">
         <v>252</v>
       </c>
-      <c r="F5" s="3">
+      <c r="E5" s="2">
         <v>314</v>
       </c>
-      <c r="G5" s="3">
+      <c r="F5" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>8568</v>
       </c>
-      <c r="C6" s="3">
+      <c r="B6" s="2">
         <v>17131</v>
       </c>
-      <c r="D6" s="3">
+      <c r="C6" s="2">
         <v>25694</v>
       </c>
-      <c r="E6" s="3">
+      <c r="D6" s="2">
         <v>34257</v>
       </c>
-      <c r="F6" s="3">
+      <c r="E6" s="2">
         <v>42820</v>
       </c>
-      <c r="G6" s="3">
+      <c r="F6" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="7">
-      <c r="B7" s="3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>78</v>
       </c>
-      <c r="C7" s="3">
+      <c r="B7" s="2">
         <v>150</v>
       </c>
-      <c r="D7" s="3">
+      <c r="C7" s="2">
         <v>222</v>
       </c>
-      <c r="E7" s="3">
+      <c r="D7" s="2">
         <v>294</v>
       </c>
-      <c r="F7" s="3">
+      <c r="E7" s="2">
         <v>366</v>
       </c>
-      <c r="G7" s="3">
+      <c r="F7" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="8">
-      <c r="B8" s="3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>6578</v>
       </c>
-      <c r="C8" s="3">
+      <c r="B8" s="2">
         <v>13149</v>
       </c>
-      <c r="D8" s="3">
+      <c r="C8" s="2">
         <v>19720</v>
       </c>
-      <c r="E8" s="3">
+      <c r="D8" s="2">
         <v>26291</v>
       </c>
-      <c r="F8" s="3">
+      <c r="E8" s="2">
         <v>32862</v>
       </c>
-      <c r="G8" s="3">
+      <c r="F8" s="2">
         <v>900</v>
       </c>
     </row>
-    <row r="9">
-      <c r="B9" s="3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>676</v>
       </c>
-      <c r="C9" s="3">
+      <c r="B9" s="2">
         <v>1344</v>
       </c>
-      <c r="D9" s="3">
+      <c r="C9" s="2">
         <v>2012</v>
       </c>
-      <c r="E9" s="3">
+      <c r="D9" s="2">
         <v>2680</v>
       </c>
-      <c r="F9" s="3">
+      <c r="E9" s="2">
         <v>3348</v>
       </c>
-      <c r="G9" s="3">
+      <c r="F9" s="2">
         <v>5000</v>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" s="3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>5677</v>
       </c>
-      <c r="C10" s="3">
+      <c r="B10" s="2">
         <v>11345</v>
       </c>
-      <c r="D10" s="3">
+      <c r="C10" s="2">
         <v>17013</v>
       </c>
-      <c r="E10" s="3">
+      <c r="D10" s="2">
         <v>22681</v>
       </c>
-      <c r="F10" s="3">
+      <c r="E10" s="2">
         <v>28349</v>
       </c>
-      <c r="G10" s="3">
+      <c r="F10" s="2">
         <v>500</v>
       </c>
     </row>
-    <row r="11">
-      <c r="B11" s="3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>4893</v>
       </c>
-      <c r="C11" s="3">
+      <c r="B11" s="2">
         <v>9776</v>
       </c>
-      <c r="D11" s="3">
+      <c r="C11" s="2">
         <v>14659</v>
       </c>
-      <c r="E11" s="3">
+      <c r="D11" s="2">
         <v>19542</v>
       </c>
-      <c r="F11" s="3">
+      <c r="E11" s="2">
         <v>24425</v>
       </c>
-      <c r="G11" s="3">
+      <c r="F11" s="2">
         <v>550</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>